--- a/media/Levels/Stage08/RightWallMap.xlsx
+++ b/media/Levels/Stage08/RightWallMap.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyush\Desktop\勉強\後期製作\Gチーム\media\Levels\Stage08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63790165-AD17-413E-8E45-331FBB2B7E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08358467-303F-4621-878B-135FF2F90C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="948" windowWidth="17280" windowHeight="8880" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RightWallMap" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D577E424-8CA8-4394-8D47-41F9055BE333}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
